--- a/이탈리아(test).xlsx
+++ b/이탈리아(test).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\..code\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8D83AB-A6B7-449E-8C6F-D8C9A08973F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17B043-F64E-493B-9CAF-31E508185B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAE907A4-1D20-4A28-9B1A-B5267559D8F1}"/>
   </bookViews>
@@ -50,16 +50,737 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>패션(쇼핑거리)</t>
+  </si>
+  <si>
+    <t>문화와 예술</t>
+  </si>
+  <si>
+    <t>유럽축구</t>
+  </si>
+  <si>
+    <t>자연여행</t>
+  </si>
+  <si>
+    <t>액티비티</t>
+  </si>
+  <si>
+    <t>사진명소</t>
+  </si>
+  <si>
+    <r>
+      <t>두오모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성당</t>
+    </r>
+  </si>
+  <si>
+    <t>스칼라 극장(Teatro alla Scala)</t>
+  </si>
+  <si>
+    <r>
+      <t>산타마리아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>델레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그라치아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성당</t>
+    </r>
+  </si>
+  <si>
+    <t>스포르체스코성</t>
+  </si>
+  <si>
+    <r>
+      <t>레오나르도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박물관</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>카사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(AC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박물관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>암브로시나</t>
+  </si>
+  <si>
+    <t>코모 호수 </t>
+  </si>
+  <si>
+    <r>
+      <t>베르가모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알프스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>프레네스티나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자연공원</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>티치노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자연공원</t>
+    </r>
+  </si>
+  <si>
+    <t>선사유적 공원(Parco Sempione)</t>
+  </si>
+  <si>
+    <t>Brera 지구</t>
+  </si>
+  <si>
+    <t>Sforza 성</t>
+  </si>
+  <si>
+    <t>난지(Navigli) 지구 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마르코</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광장</t>
+    </r>
+  </si>
+  <si>
+    <t>강림교 (Ponte di Rialto)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마르코</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대성당</t>
+    </r>
+  </si>
+  <si>
+    <t>두칼 궁전(Doge's Palace)</t>
+  </si>
+  <si>
+    <t>가라바게티 박물관(Gallerie dell'Accademia)</t>
+  </si>
+  <si>
+    <t>팔라종콜레(Basilica di Santa Maria della Salute)</t>
+  </si>
+  <si>
+    <t>토레스 타케우치(Torre dell'Orologio)</t>
+  </si>
+  <si>
+    <t>팔라조 드 바롱지(Palazzo Barovier &amp; Toso)</t>
+  </si>
+  <si>
+    <t>돌로미티</t>
+  </si>
+  <si>
+    <t>성 마르코 광장</t>
+  </si>
+  <si>
+    <t>리안토 섬 (Lido Island)</t>
+  </si>
+  <si>
+    <t>리안토 해변(Lido Beach)</t>
+  </si>
+  <si>
+    <t>브리지 오브 사이즈 (Bridge of Sighs)</t>
+  </si>
+  <si>
+    <r>
+      <t>리알토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>무라노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마르코</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광장</t>
+    </r>
+  </si>
+  <si>
+    <t>San Giorgio Maggiore</t>
+  </si>
+  <si>
+    <r>
+      <t>피사의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사탑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Leaning Tower of Pisa)</t>
+    </r>
+  </si>
+  <si>
+    <t>피트라의 문(Door of San Ranieri)</t>
+  </si>
+  <si>
+    <r>
+      <t>피사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pisa City Walls)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>피사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박물관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(National Museum of San Matteo)</t>
+    </r>
+  </si>
+  <si>
+    <t>산타 마리아 노벨라 대성당(Cathedral of Santa Maria Assunta)</t>
+  </si>
+  <si>
+    <t>비아 델 코르소 (Via del Corso)</t>
+  </si>
+  <si>
+    <t>캄피데피오리 (Campo de' Fiori)</t>
+  </si>
+  <si>
+    <t>스페인 광장</t>
+  </si>
+  <si>
+    <t>트레비 분수</t>
+  </si>
+  <si>
+    <t>판테온</t>
+  </si>
+  <si>
+    <t>베네치아 광장</t>
+  </si>
+  <si>
+    <t>캄피돌리오 광장</t>
+  </si>
+  <si>
+    <t>포로 로마노 전망대</t>
+  </si>
+  <si>
+    <t>콜로세움</t>
+  </si>
+  <si>
+    <t>진실의 입</t>
+  </si>
+  <si>
+    <t>콘스탄티누스 개선문</t>
+  </si>
+  <si>
+    <t>바티칸 시국</t>
+  </si>
+  <si>
+    <t>카피톨리노 박물관</t>
+  </si>
+  <si>
+    <t>보르게세 미술관</t>
+  </si>
+  <si>
+    <t>로마 국립박물관</t>
+  </si>
+  <si>
+    <t>델로보 성</t>
+  </si>
+  <si>
+    <t>Museo Cappella Sansevero</t>
+  </si>
+  <si>
+    <t>나폴리 국립 고고학 박물관</t>
+  </si>
+  <si>
+    <t>누오보 성</t>
+  </si>
+  <si>
+    <t>Castel Sant'Elmo</t>
+  </si>
+  <si>
+    <t>Piazza del Plebiscito</t>
+  </si>
+  <si>
+    <t>폼페이 유적지</t>
+  </si>
+  <si>
+    <t>카프리 섬 투어</t>
+  </si>
+  <si>
+    <t>소렌토 &amp; 포지타노 &amp; 아말피 해안 투어</t>
+  </si>
+  <si>
+    <t>베수비오 화산</t>
+  </si>
+  <si>
+    <t>폼페이 광장</t>
+  </si>
+  <si>
+    <t>카푸아 대성당</t>
+  </si>
+  <si>
+    <t>아말피 해안도로</t>
+  </si>
+  <si>
     <t>Via Montenapoleone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Galleria Vittorio Emanuele II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Corso Buenos Aires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Quadrilatero della moda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -103,28 +824,15 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>패션(쇼핑거리)</t>
-  </si>
-  <si>
-    <t>문화와 예술</t>
-  </si>
-  <si>
-    <t>유럽축구</t>
-  </si>
-  <si>
-    <t>자연여행</t>
-  </si>
-  <si>
-    <t>액티비티</t>
-  </si>
-  <si>
-    <t>사진명소</t>
-  </si>
-  <si>
-    <r>
-      <t>두오모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>산</t>
     </r>
     <r>
       <rPr>
@@ -143,15 +851,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>성당</t>
-    </r>
-  </si>
-  <si>
-    <t>스칼라 극장(Teatro alla Scala)</t>
-  </si>
-  <si>
-    <r>
-      <t>산타마리아</t>
+      <t>시로</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +870,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>델레</t>
+      <t>스타디움</t>
     </r>
     <r>
       <rPr>
@@ -179,6 +879,44 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>(AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터밀란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -189,7 +927,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>그라치아</t>
+      <t>홈구장</t>
     </r>
     <r>
       <rPr>
@@ -198,6 +936,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>팝업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -208,761 +961,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>성당</t>
-    </r>
-  </si>
-  <si>
-    <t>스포르체스코성</t>
-  </si>
-  <si>
-    <r>
-      <t>레오나르도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박물관</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>카사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밀란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(AC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밀란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박물관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>암브로시나</t>
-  </si>
-  <si>
-    <r>
-      <t>산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스타디움</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(AC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밀란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인터밀란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홈구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>팝업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>스토어</t>
     </r>
-  </si>
-  <si>
-    <t>코모 호수 </t>
-  </si>
-  <si>
-    <r>
-      <t>베르가모</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알프스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>프레네스티나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자연공원</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>티치노</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자연공원</t>
-    </r>
-  </si>
-  <si>
-    <t>선사유적 공원(Parco Sempione)</t>
-  </si>
-  <si>
-    <t>Brera 지구</t>
-  </si>
-  <si>
-    <t>Sforza 성</t>
-  </si>
-  <si>
-    <t>난지(Navigli) 지구 </t>
-  </si>
-  <si>
-    <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">산 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마르코</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광장</t>
-    </r>
-  </si>
-  <si>
-    <t>강림교 (Ponte di Rialto)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">산 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마르코</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대성당</t>
-    </r>
-  </si>
-  <si>
-    <t>두칼 궁전(Doge's Palace)</t>
-  </si>
-  <si>
-    <t>가라바게티 박물관(Gallerie dell'Accademia)</t>
-  </si>
-  <si>
-    <t>팔라종콜레(Basilica di Santa Maria della Salute)</t>
-  </si>
-  <si>
-    <t>토레스 타케우치(Torre dell'Orologio)</t>
-  </si>
-  <si>
-    <t>팔라조 드 바롱지(Palazzo Barovier &amp; Toso)</t>
-  </si>
-  <si>
-    <t>돌로미티</t>
-  </si>
-  <si>
-    <t>성 마르코 광장</t>
-  </si>
-  <si>
-    <t>리안토 섬 (Lido Island)</t>
-  </si>
-  <si>
-    <t>리안토 해변(Lido Beach)</t>
-  </si>
-  <si>
-    <t>브리지 오브 사이즈 (Bridge of Sighs)</t>
-  </si>
-  <si>
-    <r>
-      <t>리알토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다리</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>무라노</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>섬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마르코</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>광장</t>
-    </r>
-  </si>
-  <si>
-    <t>San Giorgio Maggiore</t>
-  </si>
-  <si>
-    <r>
-      <t>피사의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사탑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Leaning Tower of Pisa)</t>
-    </r>
-  </si>
-  <si>
-    <t>피트라의 문(Door of San Ranieri)</t>
-  </si>
-  <si>
-    <r>
-      <t>피사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성벽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pisa City Walls)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>피사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>국립</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박물관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(National Museum of San Matteo)</t>
-    </r>
-  </si>
-  <si>
-    <t>산타 마리아 노벨라 대성당(Cathedral of Santa Maria Assunta)</t>
-  </si>
-  <si>
-    <t>비아 델 코르소 (Via del Corso)</t>
-  </si>
-  <si>
-    <t>캄피데피오리 (Campo de' Fiori)</t>
-  </si>
-  <si>
-    <t>스페인 광장</t>
-  </si>
-  <si>
-    <t>트레비 분수</t>
-  </si>
-  <si>
-    <t>판테온</t>
-  </si>
-  <si>
-    <t>베네치아 광장</t>
-  </si>
-  <si>
-    <t>캄피돌리오 광장</t>
-  </si>
-  <si>
-    <t>포로 로마노 전망대</t>
-  </si>
-  <si>
-    <t>콜로세움</t>
-  </si>
-  <si>
-    <t>진실의 입</t>
-  </si>
-  <si>
-    <t>콘스탄티누스 개선문</t>
-  </si>
-  <si>
-    <t>바티칸 시국</t>
-  </si>
-  <si>
-    <t>카피톨리노 박물관</t>
-  </si>
-  <si>
-    <t>보르게세 미술관</t>
-  </si>
-  <si>
-    <t>로마 국립박물관</t>
-  </si>
-  <si>
     <t>스타디오 올림피고(AS로마, 라치오 홈구장)</t>
-  </si>
-  <si>
-    <t>델로보 성</t>
-  </si>
-  <si>
-    <t>Museo Cappella Sansevero</t>
-  </si>
-  <si>
-    <t>나폴리 국립 고고학 박물관</t>
-  </si>
-  <si>
-    <t>누오보 성</t>
-  </si>
-  <si>
-    <t>Castel Sant'Elmo</t>
-  </si>
-  <si>
-    <t>Piazza del Plebiscito</t>
-  </si>
-  <si>
-    <t>폼페이 유적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나폴리 홈구장(디에고 아르만도 마라도나 스타디움)</t>
-  </si>
-  <si>
-    <t>카프리 섬 투어</t>
-  </si>
-  <si>
-    <t>소렌토 &amp; 포지타노 &amp; 아말피 해안 투어</t>
-  </si>
-  <si>
-    <t>베수비오 화산</t>
-  </si>
-  <si>
-    <t>폼페이 광장</t>
-  </si>
-  <si>
-    <t>카푸아 대성당</t>
-  </si>
-  <si>
-    <t>아말피 해안도로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1408,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD5276-6D05-4396-BA10-2774D255FEB2}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1430,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.2">
@@ -1438,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -1452,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -1466,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -1480,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1494,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1508,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1522,10 +1531,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1536,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1550,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1564,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -1578,10 +1587,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -1592,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1606,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1620,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -1634,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -1648,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -1662,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -1676,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -1690,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -1704,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -1718,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1732,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -1746,10 +1755,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -1760,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -1774,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1788,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -1802,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -1816,10 +1825,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -1830,10 +1839,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -1844,10 +1853,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -1858,10 +1867,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -1872,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -1886,10 +1895,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -1900,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -1914,10 +1923,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -1928,10 +1937,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -1942,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -1956,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2">
         <v>5</v>
@@ -1970,10 +1979,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -1984,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
@@ -1998,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2">
         <v>5</v>
@@ -2012,10 +2021,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
@@ -2026,10 +2035,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
@@ -2040,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -2054,10 +2063,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
@@ -2068,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -2082,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -2096,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -2110,10 +2119,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -2124,10 +2133,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
@@ -2138,10 +2147,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -2152,10 +2161,10 @@
         <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -2166,10 +2175,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -2180,10 +2189,10 @@
         <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
@@ -2194,10 +2203,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -2208,10 +2217,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
@@ -2222,10 +2231,10 @@
         <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -2236,10 +2245,10 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
@@ -2250,10 +2259,10 @@
         <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
@@ -2264,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -2278,10 +2287,10 @@
         <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -2292,10 +2301,10 @@
         <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
@@ -2306,10 +2315,10 @@
         <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D64" s="2">
         <v>5</v>
@@ -2320,10 +2329,10 @@
         <v>14</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
@@ -2334,10 +2343,10 @@
         <v>14</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -2348,10 +2357,10 @@
         <v>14</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
@@ -2362,10 +2371,10 @@
         <v>14</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D68" s="2">
         <v>5</v>
@@ -2376,10 +2385,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D69" s="2">
         <v>4</v>
@@ -2390,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2">
         <v>3</v>
@@ -2404,10 +2413,10 @@
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2">
         <v>3</v>
@@ -2418,10 +2427,10 @@
         <v>15</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -2432,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
@@ -2446,10 +2455,10 @@
         <v>15</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D74" s="2">
         <v>5</v>
@@ -2460,10 +2469,10 @@
         <v>15</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -2474,10 +2483,10 @@
         <v>16</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D76" s="2">
         <v>3</v>
@@ -2488,10 +2497,10 @@
         <v>17</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2">
         <v>4</v>
@@ -2502,10 +2511,10 @@
         <v>17</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D78" s="2">
         <v>5</v>
@@ -2516,10 +2525,10 @@
         <v>18</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D79" s="2">
         <v>4</v>
@@ -2530,10 +2539,10 @@
         <v>18</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
@@ -2544,10 +2553,10 @@
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D81" s="2">
         <v>4</v>
@@ -2558,10 +2567,10 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D82" s="2">
         <v>5</v>
@@ -2572,10 +2581,10 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D83" s="2">
         <v>3</v>
@@ -2586,10 +2595,10 @@
         <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D84" s="2">
         <v>5</v>
